--- a/Validación del cálculo de los descriptores/Validación de cálculo de descriptores.xlsx
+++ b/Validación del cálculo de los descriptores/Validación de cálculo de descriptores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90727fd8e92db46b/Desktop/Tesis/blind-estimation-of-acoustics-parameters/Validación del cálculo de los descriptores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="697" documentId="11_AD4D2F04E46CFB4ACB3E202A7554FB6E683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4791F4-751C-4630-810D-C54595F03621}"/>
+  <xr:revisionPtr revIDLastSave="703" documentId="11_AD4D2F04E46CFB4ACB3E202A7554FB6E683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA50DF1-715B-4F99-ADA5-C463FDBDB613}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="octava" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="39">
   <si>
     <t>Audio</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Desvío estándar</t>
+  </si>
+  <si>
+    <t>Nota: calcular desvío por banda y hacer gráficos de scaterplott</t>
+  </si>
+  <si>
+    <t>Leer el código del rew para ver qué hace</t>
+  </si>
+  <si>
+    <t>https://www.roomeqwizard.com/help/help_en-GB/html/primer.html#top</t>
+  </si>
+  <si>
+    <t>Comparar con Aurora</t>
   </si>
 </sst>
 </file>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView topLeftCell="E118" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N141"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7297,6 +7309,26 @@
         <v>20.634284063867252</v>
       </c>
     </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7306,7 +7338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7012AED3-E858-4817-85F2-359DD95B47E2}">
   <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>

--- a/Validación del cálculo de los descriptores/Validación de cálculo de descriptores.xlsx
+++ b/Validación del cálculo de los descriptores/Validación de cálculo de descriptores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90727fd8e92db46b/Desktop/Tesis/blind-estimation-of-acoustics-parameters/Validación del cálculo de los descriptores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="703" documentId="11_AD4D2F04E46CFB4ACB3E202A7554FB6E683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA50DF1-715B-4F99-ADA5-C463FDBDB613}"/>
+  <xr:revisionPtr revIDLastSave="720" documentId="11_AD4D2F04E46CFB4ACB3E202A7554FB6E683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{541DD53B-2A34-4B47-9521-BB8A9925DB6B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -224,6 +224,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7338,8 +7339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7012AED3-E858-4817-85F2-359DD95B47E2}">
   <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="L150" sqref="L150"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7410,7 +7411,7 @@
       <c r="B2">
         <v>125</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>0.95499999999999996</v>
       </c>
       <c r="D2" s="2">
@@ -7458,7 +7459,7 @@
       <c r="B3">
         <v>250</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0.98099999999999998</v>
       </c>
       <c r="D3" s="2">
@@ -7506,7 +7507,7 @@
       <c r="B4">
         <v>500</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>1.052</v>
       </c>
       <c r="D4" s="2">
@@ -7554,7 +7555,7 @@
       <c r="B5">
         <v>1000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.97</v>
       </c>
       <c r="D5" s="2">
@@ -7602,7 +7603,7 @@
       <c r="B6">
         <v>2000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.96599999999999997</v>
       </c>
       <c r="D6" s="2">
@@ -7650,7 +7651,7 @@
       <c r="B7">
         <v>4000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>1.026</v>
       </c>
       <c r="D7" s="2">
@@ -7698,7 +7699,7 @@
       <c r="B8">
         <v>8000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.98599999999999999</v>
       </c>
       <c r="D8" s="2">
@@ -7746,7 +7747,7 @@
       <c r="B9">
         <v>125</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>1.889</v>
       </c>
       <c r="D9" s="2">
@@ -7794,7 +7795,7 @@
       <c r="B10">
         <v>250</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>2.1230000000000002</v>
       </c>
       <c r="D10" s="2">
@@ -7842,7 +7843,7 @@
       <c r="B11">
         <v>500</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>1.9510000000000001</v>
       </c>
       <c r="D11" s="2">
@@ -7890,7 +7891,7 @@
       <c r="B12">
         <v>1000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>2.0590000000000002</v>
       </c>
       <c r="D12" s="2">
@@ -7938,7 +7939,7 @@
       <c r="B13">
         <v>2000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>2.024</v>
       </c>
       <c r="D13" s="2">
@@ -7986,7 +7987,7 @@
       <c r="B14">
         <v>4000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>2.0030000000000001</v>
       </c>
       <c r="D14" s="2">
@@ -8034,7 +8035,7 @@
       <c r="B15">
         <v>8000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>2.02</v>
       </c>
       <c r="D15" s="2">
@@ -8082,7 +8083,7 @@
       <c r="B16">
         <v>125</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>1.738</v>
       </c>
       <c r="D16" s="2">
@@ -8130,7 +8131,7 @@
       <c r="B17">
         <v>250</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>1.851</v>
       </c>
       <c r="D17" s="2">
@@ -8178,7 +8179,7 @@
       <c r="B18">
         <v>500</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>1.87</v>
       </c>
       <c r="D18" s="2">
@@ -8226,7 +8227,7 @@
       <c r="B19">
         <v>1000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>1.8009999999999999</v>
       </c>
       <c r="D19" s="2">
@@ -8274,7 +8275,7 @@
       <c r="B20">
         <v>2000</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>1.802</v>
       </c>
       <c r="D20" s="2">
@@ -8322,7 +8323,7 @@
       <c r="B21">
         <v>4000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>1.7769999999999999</v>
       </c>
       <c r="D21" s="2">
@@ -8370,7 +8371,7 @@
       <c r="B22">
         <v>8000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>1.8080000000000001</v>
       </c>
       <c r="D22" s="2">
@@ -8418,7 +8419,7 @@
       <c r="B23">
         <v>125</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>0.93799999999999994</v>
       </c>
       <c r="D23" s="2">
@@ -8466,7 +8467,7 @@
       <c r="B24">
         <v>250</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>1.044</v>
       </c>
       <c r="D24" s="2">
@@ -8514,7 +8515,7 @@
       <c r="B25">
         <v>500</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>1.0900000000000001</v>
       </c>
       <c r="D25" s="2">
@@ -8562,7 +8563,7 @@
       <c r="B26">
         <v>1000</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>1.018</v>
       </c>
       <c r="D26" s="2">
@@ -8610,7 +8611,7 @@
       <c r="B27">
         <v>2000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>0.97499999999999998</v>
       </c>
       <c r="D27" s="2">
@@ -8658,7 +8659,7 @@
       <c r="B28">
         <v>4000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>0.997</v>
       </c>
       <c r="D28" s="2">
@@ -8706,7 +8707,7 @@
       <c r="B29">
         <v>8000</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>0.96799999999999997</v>
       </c>
       <c r="D29" s="2">
@@ -8754,7 +8755,7 @@
       <c r="B30">
         <v>125</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>1.4810000000000001</v>
       </c>
       <c r="D30" s="2">
@@ -8802,7 +8803,7 @@
       <c r="B31">
         <v>250</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>1.512</v>
       </c>
       <c r="D31" s="2">
@@ -8850,7 +8851,7 @@
       <c r="B32">
         <v>500</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>1.528</v>
       </c>
       <c r="D32" s="2">
@@ -8898,7 +8899,7 @@
       <c r="B33">
         <v>1000</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>1.5349999999999999</v>
       </c>
       <c r="D33" s="2">
@@ -8946,7 +8947,7 @@
       <c r="B34">
         <v>2000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>1.532</v>
       </c>
       <c r="D34" s="2">
@@ -8994,7 +8995,7 @@
       <c r="B35">
         <v>4000</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>1.5169999999999999</v>
       </c>
       <c r="D35" s="2">
@@ -9042,7 +9043,7 @@
       <c r="B36">
         <v>8000</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>1.472</v>
       </c>
       <c r="D36" s="2">
@@ -9090,7 +9091,7 @@
       <c r="B37">
         <v>125</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>2.0939999999999999</v>
       </c>
       <c r="D37" s="2">
@@ -9138,7 +9139,7 @@
       <c r="B38">
         <v>250</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>2.117</v>
       </c>
       <c r="D38" s="2">
@@ -9186,7 +9187,7 @@
       <c r="B39">
         <v>500</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>2.1800000000000002</v>
       </c>
       <c r="D39" s="2">
@@ -9234,7 +9235,7 @@
       <c r="B40">
         <v>1000</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>2.266</v>
       </c>
       <c r="D40" s="2">
@@ -9282,7 +9283,7 @@
       <c r="B41">
         <v>2000</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>2.1520000000000001</v>
       </c>
       <c r="D41" s="2">
@@ -9330,7 +9331,7 @@
       <c r="B42">
         <v>4000</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>1.645</v>
       </c>
       <c r="D42" s="2">
@@ -9378,7 +9379,7 @@
       <c r="B43">
         <v>8000</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>1.038</v>
       </c>
       <c r="D43" s="2">
@@ -9426,7 +9427,7 @@
       <c r="B44">
         <v>125</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>2.0819999999999999</v>
       </c>
       <c r="D44" s="2">
@@ -9474,7 +9475,7 @@
       <c r="B45">
         <v>250</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>2.0270000000000001</v>
       </c>
       <c r="D45" s="2">
@@ -9522,7 +9523,7 @@
       <c r="B46">
         <v>500</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>2.036</v>
       </c>
       <c r="D46" s="2">
@@ -9570,7 +9571,7 @@
       <c r="B47">
         <v>1000</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>2.1389999999999998</v>
       </c>
       <c r="D47" s="2">
@@ -9618,7 +9619,7 @@
       <c r="B48">
         <v>2000</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>2.0449999999999999</v>
       </c>
       <c r="D48" s="2">
@@ -9666,7 +9667,7 @@
       <c r="B49">
         <v>4000</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>1.5740000000000001</v>
       </c>
       <c r="D49" s="2">
@@ -9714,7 +9715,7 @@
       <c r="B50">
         <v>8000</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>1.014</v>
       </c>
       <c r="D50" s="2">
@@ -9762,7 +9763,7 @@
       <c r="B51">
         <v>125</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>2.1070000000000002</v>
       </c>
       <c r="D51" s="2">
@@ -9810,7 +9811,7 @@
       <c r="B52">
         <v>250</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>2.028</v>
       </c>
       <c r="D52" s="2">
@@ -9858,7 +9859,7 @@
       <c r="B53">
         <v>500</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>2.177</v>
       </c>
       <c r="D53" s="2">
@@ -9906,7 +9907,7 @@
       <c r="B54">
         <v>1000</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>2.3740000000000001</v>
       </c>
       <c r="D54" s="2">
@@ -9954,7 +9955,7 @@
       <c r="B55">
         <v>2000</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="5">
         <v>2.1110000000000002</v>
       </c>
       <c r="D55" s="2">
@@ -10002,7 +10003,7 @@
       <c r="B56">
         <v>4000</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="5">
         <v>1.625</v>
       </c>
       <c r="D56" s="2">
@@ -10050,7 +10051,7 @@
       <c r="B57">
         <v>8000</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>1.07</v>
       </c>
       <c r="D57" s="2">
@@ -10098,7 +10099,7 @@
       <c r="B58">
         <v>125</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="5">
         <v>2.5430000000000001</v>
       </c>
       <c r="D58" s="2">
@@ -10146,7 +10147,7 @@
       <c r="B59">
         <v>250</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>2.528</v>
       </c>
       <c r="D59" s="2">
@@ -10194,7 +10195,7 @@
       <c r="B60">
         <v>500</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="5">
         <v>2.4569999999999999</v>
       </c>
       <c r="D60" s="2">
@@ -10242,7 +10243,7 @@
       <c r="B61">
         <v>1000</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="5">
         <v>2.4580000000000002</v>
       </c>
       <c r="D61" s="2">
@@ -10290,7 +10291,7 @@
       <c r="B62">
         <v>2000</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="5">
         <v>2.4319999999999999</v>
       </c>
       <c r="D62" s="2">
@@ -10338,7 +10339,7 @@
       <c r="B63">
         <v>4000</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="5">
         <v>1.9970000000000001</v>
       </c>
       <c r="D63" s="2">
@@ -10386,7 +10387,7 @@
       <c r="B64">
         <v>8000</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>1.2290000000000001</v>
       </c>
       <c r="D64" s="2">
@@ -10434,7 +10435,7 @@
       <c r="B65">
         <v>125</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>0.9</v>
       </c>
       <c r="D65" s="2">
@@ -10482,7 +10483,7 @@
       <c r="B66">
         <v>250</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="5">
         <v>0.91</v>
       </c>
       <c r="D66" s="2">
@@ -10530,7 +10531,7 @@
       <c r="B67">
         <v>500</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="5">
         <v>1.028</v>
       </c>
       <c r="D67" s="2">
@@ -10578,7 +10579,7 @@
       <c r="B68">
         <v>1000</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <v>1.1220000000000001</v>
       </c>
       <c r="D68" s="2">
@@ -10626,7 +10627,7 @@
       <c r="B69">
         <v>2000</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="5">
         <v>0.99199999999999999</v>
       </c>
       <c r="D69" s="2">
@@ -10674,7 +10675,7 @@
       <c r="B70">
         <v>4000</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="5">
         <v>0.78200000000000003</v>
       </c>
       <c r="D70" s="2">
@@ -10722,7 +10723,7 @@
       <c r="B71">
         <v>8000</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <v>0.60899999999999999</v>
       </c>
       <c r="D71" s="2">
@@ -10770,7 +10771,7 @@
       <c r="B72">
         <v>125</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>0.93</v>
       </c>
       <c r="D72" s="2">
@@ -10818,7 +10819,7 @@
       <c r="B73">
         <v>250</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="5">
         <v>1.0569999999999999</v>
       </c>
       <c r="D73" s="2">
@@ -10866,7 +10867,7 @@
       <c r="B74">
         <v>500</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <v>1.137</v>
       </c>
       <c r="D74" s="2">
@@ -10914,7 +10915,7 @@
       <c r="B75">
         <v>1000</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
         <v>1.2549999999999999</v>
       </c>
       <c r="D75" s="2">
@@ -10962,7 +10963,7 @@
       <c r="B76">
         <v>2000</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <v>1.113</v>
       </c>
       <c r="D76" s="2">
@@ -11010,7 +11011,7 @@
       <c r="B77">
         <v>4000</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>0.89400000000000002</v>
       </c>
       <c r="D77" s="2">
@@ -11058,7 +11059,7 @@
       <c r="B78">
         <v>8000</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="5">
         <v>0.67300000000000004</v>
       </c>
       <c r="D78" s="2">
@@ -11106,7 +11107,7 @@
       <c r="B79">
         <v>125</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="5">
         <v>1.161</v>
       </c>
       <c r="D79" s="2">
@@ -11154,7 +11155,7 @@
       <c r="B80">
         <v>250</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="5">
         <v>1.3169999999999999</v>
       </c>
       <c r="D80" s="2">
@@ -11202,7 +11203,7 @@
       <c r="B81">
         <v>500</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="5">
         <v>1.405</v>
       </c>
       <c r="D81" s="2">
@@ -11250,7 +11251,7 @@
       <c r="B82">
         <v>1000</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="5">
         <v>1.4590000000000001</v>
       </c>
       <c r="D82" s="2">
@@ -11298,7 +11299,7 @@
       <c r="B83">
         <v>2000</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="5">
         <v>1.339</v>
       </c>
       <c r="D83" s="2">
@@ -11346,7 +11347,7 @@
       <c r="B84">
         <v>4000</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="5">
         <v>1.1160000000000001</v>
       </c>
       <c r="D84" s="2">
@@ -11394,7 +11395,7 @@
       <c r="B85">
         <v>8000</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="5">
         <v>0.79500000000000004</v>
       </c>
       <c r="D85" s="2">
@@ -11442,7 +11443,7 @@
       <c r="B86">
         <v>125</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="5">
         <v>2.6040000000000001</v>
       </c>
       <c r="D86" s="2">
@@ -11490,7 +11491,7 @@
       <c r="B87">
         <v>250</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="5">
         <v>2.4670000000000001</v>
       </c>
       <c r="D87" s="2">
@@ -11538,7 +11539,7 @@
       <c r="B88">
         <v>500</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="5">
         <v>2.4409999999999998</v>
       </c>
       <c r="D88" s="2">
@@ -11586,7 +11587,7 @@
       <c r="B89">
         <v>1000</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>2.44</v>
       </c>
       <c r="D89" s="2">
@@ -11634,7 +11635,7 @@
       <c r="B90">
         <v>2000</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="5">
         <v>2.42</v>
       </c>
       <c r="D90" s="2">
@@ -11682,7 +11683,7 @@
       <c r="B91">
         <v>4000</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>1.998</v>
       </c>
       <c r="D91" s="2">
@@ -11730,7 +11731,7 @@
       <c r="B92">
         <v>8000</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>1.224</v>
       </c>
       <c r="D92" s="2">
@@ -11778,7 +11779,7 @@
       <c r="B93">
         <v>125</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="5">
         <v>2.9209999999999998</v>
       </c>
       <c r="D93" s="2">
@@ -11826,7 +11827,7 @@
       <c r="B94">
         <v>250</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="5">
         <v>2.5960000000000001</v>
       </c>
       <c r="D94" s="2">
@@ -11874,7 +11875,7 @@
       <c r="B95">
         <v>500</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="5">
         <v>2.7490000000000001</v>
       </c>
       <c r="D95" s="2">
@@ -11922,7 +11923,7 @@
       <c r="B96">
         <v>1000</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="5">
         <v>2.7149999999999999</v>
       </c>
       <c r="D96" s="2">
@@ -11970,7 +11971,7 @@
       <c r="B97">
         <v>2000</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="5">
         <v>2.726</v>
       </c>
       <c r="D97" s="2">
@@ -12018,7 +12019,7 @@
       <c r="B98">
         <v>4000</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="5">
         <v>2.2370000000000001</v>
       </c>
       <c r="D98" s="2">
@@ -12066,7 +12067,7 @@
       <c r="B99">
         <v>8000</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="5">
         <v>1.3169999999999999</v>
       </c>
       <c r="D99" s="2">
@@ -12114,7 +12115,7 @@
       <c r="B100">
         <v>125</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="5">
         <v>0.88300000000000001</v>
       </c>
       <c r="D100" s="2">
@@ -12162,7 +12163,7 @@
       <c r="B101">
         <v>250</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="5">
         <v>0.81</v>
       </c>
       <c r="D101" s="2">
@@ -12210,7 +12211,7 @@
       <c r="B102">
         <v>500</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="5">
         <v>1.018</v>
       </c>
       <c r="D102" s="2">
@@ -12258,7 +12259,7 @@
       <c r="B103">
         <v>1000</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="5">
         <v>1.024</v>
       </c>
       <c r="D103" s="2">
@@ -12306,7 +12307,7 @@
       <c r="B104">
         <v>2000</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="5">
         <v>0.88100000000000001</v>
       </c>
       <c r="D104" s="2">
@@ -12354,7 +12355,7 @@
       <c r="B105">
         <v>4000</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="5">
         <v>0.72599999999999998</v>
       </c>
       <c r="D105" s="2">
@@ -12402,7 +12403,7 @@
       <c r="B106">
         <v>8000</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="5">
         <v>0.57199999999999995</v>
       </c>
       <c r="D106" s="2">
@@ -12450,7 +12451,7 @@
       <c r="B107">
         <v>125</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="5">
         <v>1.9890000000000001</v>
       </c>
       <c r="D107" s="2">
@@ -12498,7 +12499,7 @@
       <c r="B108">
         <v>250</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="5">
         <v>1.786</v>
       </c>
       <c r="D108" s="2">
@@ -12546,7 +12547,7 @@
       <c r="B109">
         <v>500</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="5">
         <v>1.923</v>
       </c>
       <c r="D109" s="2">
@@ -12594,7 +12595,7 @@
       <c r="B110">
         <v>1000</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="5">
         <v>1.9930000000000001</v>
       </c>
       <c r="D110" s="2">
@@ -12642,7 +12643,7 @@
       <c r="B111">
         <v>2000</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="5">
         <v>1.891</v>
       </c>
       <c r="D111" s="2">
@@ -12690,7 +12691,7 @@
       <c r="B112">
         <v>4000</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="5">
         <v>1.548</v>
       </c>
       <c r="D112" s="2">
@@ -12738,7 +12739,7 @@
       <c r="B113">
         <v>8000</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="5">
         <v>1.0660000000000001</v>
       </c>
       <c r="D113" s="2">
@@ -12786,7 +12787,7 @@
       <c r="B114">
         <v>125</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="5">
         <v>2.4260000000000002</v>
       </c>
       <c r="D114" s="2">
@@ -12834,7 +12835,7 @@
       <c r="B115">
         <v>250</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="5">
         <v>2.1280000000000001</v>
       </c>
       <c r="D115" s="2">
@@ -12882,7 +12883,7 @@
       <c r="B116">
         <v>500</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="5">
         <v>2.2400000000000002</v>
       </c>
       <c r="D116" s="2">
@@ -12930,7 +12931,7 @@
       <c r="B117">
         <v>1000</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="5">
         <v>2.363</v>
       </c>
       <c r="D117" s="2">
@@ -12978,7 +12979,7 @@
       <c r="B118">
         <v>2000</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="5">
         <v>2.2799999999999998</v>
       </c>
       <c r="D118" s="2">
@@ -13026,7 +13027,7 @@
       <c r="B119">
         <v>4000</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="5">
         <v>1.861</v>
       </c>
       <c r="D119" s="2">
@@ -13074,7 +13075,7 @@
       <c r="B120">
         <v>8000</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="5">
         <v>1.228</v>
       </c>
       <c r="D120" s="2">
@@ -13122,7 +13123,7 @@
       <c r="B121">
         <v>125</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="5">
         <v>2.411</v>
       </c>
       <c r="D121" s="2">
@@ -13170,7 +13171,7 @@
       <c r="B122">
         <v>250</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="5">
         <v>2.464</v>
       </c>
       <c r="D122" s="2">
@@ -13218,7 +13219,7 @@
       <c r="B123">
         <v>500</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="5">
         <v>2.5249999999999999</v>
       </c>
       <c r="D123" s="2">
@@ -13266,7 +13267,7 @@
       <c r="B124">
         <v>1000</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="5">
         <v>2.4780000000000002</v>
       </c>
       <c r="D124" s="2">
@@ -13314,7 +13315,7 @@
       <c r="B125">
         <v>2000</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="5">
         <v>2.448</v>
       </c>
       <c r="D125" s="2">
@@ -13362,7 +13363,7 @@
       <c r="B126">
         <v>4000</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="5">
         <v>1.95</v>
       </c>
       <c r="D126" s="2">
@@ -13410,7 +13411,7 @@
       <c r="B127">
         <v>8000</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="5">
         <v>1.256</v>
       </c>
       <c r="D127" s="2">
@@ -13458,7 +13459,7 @@
       <c r="B128">
         <v>125</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="5">
         <v>2.387</v>
       </c>
       <c r="D128" s="2">
@@ -13506,7 +13507,7 @@
       <c r="B129">
         <v>250</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="5">
         <v>2.452</v>
       </c>
       <c r="D129" s="2">
@@ -13554,7 +13555,7 @@
       <c r="B130">
         <v>500</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="5">
         <v>2.5259999999999998</v>
       </c>
       <c r="D130" s="2">
@@ -13602,7 +13603,7 @@
       <c r="B131">
         <v>1000</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="5">
         <v>2.4849999999999999</v>
       </c>
       <c r="D131" s="2">
@@ -13650,7 +13651,7 @@
       <c r="B132">
         <v>2000</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="5">
         <v>2.4390000000000001</v>
       </c>
       <c r="D132" s="2">
@@ -13698,7 +13699,7 @@
       <c r="B133">
         <v>4000</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="5">
         <v>1.948</v>
       </c>
       <c r="D133" s="2">
@@ -13746,7 +13747,7 @@
       <c r="B134">
         <v>8000</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="5">
         <v>1.262</v>
       </c>
       <c r="D134" s="2">
@@ -13794,7 +13795,7 @@
       <c r="B135">
         <v>125</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="5">
         <v>0.95</v>
       </c>
       <c r="D135" s="2">
@@ -13842,7 +13843,7 @@
       <c r="B136">
         <v>250</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="5">
         <v>0.77200000000000002</v>
       </c>
       <c r="D136" s="2">
@@ -13890,7 +13891,7 @@
       <c r="B137">
         <v>500</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="5">
         <v>1.0229999999999999</v>
       </c>
       <c r="D137" s="2">
@@ -13938,7 +13939,7 @@
       <c r="B138">
         <v>1000</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="5">
         <v>1.071</v>
       </c>
       <c r="D138" s="2">
@@ -13986,7 +13987,7 @@
       <c r="B139">
         <v>2000</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="5">
         <v>0.94799999999999995</v>
       </c>
       <c r="D139" s="2">
@@ -14034,7 +14035,7 @@
       <c r="B140">
         <v>4000</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="5">
         <v>0.80100000000000005</v>
       </c>
       <c r="D140" s="2">
@@ -14082,7 +14083,7 @@
       <c r="B141">
         <v>8000</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="5">
         <v>0.624</v>
       </c>
       <c r="D141" s="2">
